--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="放射报告工作站模块" sheetId="1" r:id="rId1"/>
-    <sheet name="超声图文报告" sheetId="2" r:id="rId2"/>
-    <sheet name="内镜图文报告模块" sheetId="3" r:id="rId3"/>
-    <sheet name="登记工作模块" sheetId="4" r:id="rId4"/>
-    <sheet name="检查工作列表模块" sheetId="5" r:id="rId5"/>
-    <sheet name="核医学图文报告模块" sheetId="6" r:id="rId6"/>
-    <sheet name="TEEasyPACS 工作站" sheetId="7" r:id="rId7"/>
-    <sheet name="PACS服务器模块" sheetId="8" r:id="rId8"/>
+    <sheet name="DICOM打印模块" sheetId="14" r:id="rId1"/>
+    <sheet name="心电管理系统模块" sheetId="13" r:id="rId2"/>
+    <sheet name="苹果平台调阅" sheetId="12" r:id="rId3"/>
+    <sheet name="安卓平台调阅图像" sheetId="11" r:id="rId4"/>
+    <sheet name="放射报告工作站模块" sheetId="1" r:id="rId5"/>
+    <sheet name="超声图文报告" sheetId="2" r:id="rId6"/>
+    <sheet name="内镜图文报告模块" sheetId="3" r:id="rId7"/>
+    <sheet name="登记工作模块" sheetId="4" r:id="rId8"/>
+    <sheet name="检查工作列表模块" sheetId="5" r:id="rId9"/>
+    <sheet name="核医学图文报告模块" sheetId="6" r:id="rId10"/>
+    <sheet name="病理图文报告模块" sheetId="8" r:id="rId11"/>
+    <sheet name="PACS服务器模块" sheetId="15" r:id="rId12"/>
+    <sheet name="TEEasyPACS 工作站" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="233">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,11 +564,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用</t>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7(1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7(1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p45(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44（8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p40(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此软件为图像浏览软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5(注意)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p43(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7(系统要求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8(软件安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为浏览软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为单机版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7（系统要求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p43（7.2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p9(1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发数？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10(1.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p105(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p13见红色字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p104(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p105(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8(注意)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p105(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p105(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10(系统要求）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10(软件安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p105(13.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6(软件安装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需添加信息，浏览软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14(4.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14（5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装软件前无需安卓其他软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p77(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p77(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18见红色字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p75(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p77(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p77(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p76(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p77(13.2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,150 +824,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>P44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P46(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P44(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P67(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14(2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P73(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9(2.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74(12.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74(12.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65(8.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14(2.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>P75(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P6(1.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P77(17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P6(1.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P65(8.22)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P67(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P75(16)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P74(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P7(1.6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P14(2.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P73(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P8(2.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P9(2.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P74(12.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P74(12.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P14(2.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P73(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P14(2.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P46(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P44(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -741,9 +966,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -756,8 +980,9 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -806,16 +1031,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,16 +1049,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,7 +1127,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -942,7 +1161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1118,7 +1336,4353 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="42.125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C50" sqref="C49:C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="28.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -1671,8 +6235,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2232,8 +6796,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -2792,11 +7356,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -3350,11 +7914,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -3906,1560 +8470,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection sqref="A1:C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="42.125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="放射报告工作站模块" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="登记工作模块" sheetId="4" r:id="rId4"/>
     <sheet name="检查工作列表模块" sheetId="5" r:id="rId5"/>
     <sheet name="核医学图文报告模块" sheetId="6" r:id="rId6"/>
+    <sheet name="TEEasyPACS 工作站" sheetId="7" r:id="rId7"/>
+    <sheet name="PACS服务器模块" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="178">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,14 +556,166 @@
   </si>
   <si>
     <t>p8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5(1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P77(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65(8.22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P67(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14(2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P73(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9(2.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74(12.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74(12.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14(2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P73(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P14(2.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P46(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P44(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +726,36 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -615,11 +799,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,11 +824,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -706,6 +907,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -740,6 +942,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -915,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -1469,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2030,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -2590,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -3148,10 +3351,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -3706,11 +3909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
@@ -4261,4 +4464,1002 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection sqref="A1:C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="42.125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="12"/>
@@ -19,14 +19,14 @@
     <sheet name="核医学图文报告模块" sheetId="6" r:id="rId10"/>
     <sheet name="病理图文报告模块" sheetId="8" r:id="rId11"/>
     <sheet name="PACS服务器模块" sheetId="15" r:id="rId12"/>
-    <sheet name="TEEasyPACS 工作站" sheetId="16" r:id="rId13"/>
+    <sheet name="TMEasyPACS 工作站" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="253">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,13 +933,93 @@
   </si>
   <si>
     <t>P74(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P46(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P46(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(1.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P47(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(1.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4(四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4(四)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5（五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4(三)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1024,7 +1104,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,17 +1123,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1127,6 +1215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1161,6 +1250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1336,7 +1426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1892,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -2450,7 +2540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -3008,11 +3098,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3210,8 +3300,8 @@
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>213</v>
+      <c r="C18" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3221,8 +3311,8 @@
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>214</v>
+      <c r="C19" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3232,8 +3322,8 @@
       <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>215</v>
+      <c r="C20" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3243,8 +3333,8 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>216</v>
+      <c r="C21" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3254,8 +3344,8 @@
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>217</v>
+      <c r="C22" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3265,8 +3355,8 @@
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>218</v>
+      <c r="C23" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3276,8 +3366,8 @@
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>219</v>
+      <c r="C24" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3287,8 +3377,8 @@
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>220</v>
+      <c r="C25" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3298,9 +3388,7 @@
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>221</v>
-      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
@@ -3309,8 +3397,8 @@
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>222</v>
+      <c r="C27" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3320,8 +3408,8 @@
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>223</v>
+      <c r="C28" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3331,7 +3419,7 @@
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3342,8 +3430,8 @@
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>224</v>
+      <c r="C30" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3353,7 +3441,7 @@
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3380,7 +3468,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>243</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3390,7 +3481,9 @@
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
@@ -3399,8 +3492,8 @@
       <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>225</v>
+      <c r="C36" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3410,7 +3503,7 @@
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3421,8 +3514,8 @@
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>212</v>
+      <c r="C38" s="6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3432,8 +3525,8 @@
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>209</v>
+      <c r="C39" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3443,8 +3536,8 @@
       <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>227</v>
+      <c r="C40" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3454,6 +3547,9 @@
       <c r="B41" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C41" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
@@ -3462,8 +3558,8 @@
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>217</v>
+      <c r="C42" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3473,8 +3569,8 @@
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>218</v>
+      <c r="C43" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3484,7 +3580,7 @@
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3495,8 +3591,8 @@
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>228</v>
+      <c r="C45" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3507,11 +3603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C50" sqref="C49:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4006,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -4566,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -5124,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -5682,7 +5778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -6236,7 +6332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6797,7 +6893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -7357,7 +7453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -7915,7 +8011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">

--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="DICOM打印模块" sheetId="14" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="病理图文报告模块" sheetId="8" r:id="rId11"/>
     <sheet name="PACS服务器模块" sheetId="15" r:id="rId12"/>
     <sheet name="TMEasyPACS 工作站" sheetId="16" r:id="rId13"/>
+    <sheet name="TMEasy PACS-区域医疗影像模块" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="279">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,6 +1014,110 @@
   </si>
   <si>
     <t>P22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5(1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P40(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5(1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27(4.5.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(1.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用户适应性修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(第二章)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(第三章)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6（1.10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39（10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需要数据备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P39（11）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P40(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,6 +1229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3606,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A24" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4092,6 +4200,506 @@
       </c>
       <c r="C45" s="1" t="s">
         <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="42.125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +5273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7650" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="DICOM打印模块" sheetId="14" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="PACS服务器模块" sheetId="15" r:id="rId12"/>
     <sheet name="TMEasyPACS 工作站" sheetId="16" r:id="rId13"/>
     <sheet name="TMEasy PACS-区域医疗影像模块" sheetId="17" r:id="rId14"/>
+    <sheet name="苹果操作系统移动设备报告图像调阅模块" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="287">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,6 +1119,38 @@
   </si>
   <si>
     <t>P10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(1.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P30(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P28(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27(4.5.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16(3.38)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4213,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4689,6 +4722,504 @@
       </c>
       <c r="C44" s="2" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -24,11 +24,12 @@
     <sheet name="苹果操作系统移动设备报告图像调阅模块" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="304">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,19 +1139,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P30(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P28(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P27(4.5.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P16(3.38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P17(3.38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P29(4.3.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P32(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8(1.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P33（9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P33(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对iPad不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,6 +1334,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4744,10 +4816,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4846,7 +4918,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4857,7 +4929,7 @@
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4890,7 +4962,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4901,7 +4973,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4912,7 +4984,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4923,7 +4995,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4934,7 +5006,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4945,7 +5017,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4967,7 +5039,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4978,7 +5050,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4989,7 +5061,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5000,7 +5072,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5011,7 +5083,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5022,7 +5094,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5033,7 +5105,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5044,7 +5116,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5077,7 +5149,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5085,10 +5157,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5098,7 +5170,7 @@
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
@@ -5107,7 +5179,7 @@
       <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
@@ -5116,7 +5188,7 @@
       <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
@@ -5125,7 +5197,9 @@
       <c r="B35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
@@ -5134,8 +5208,8 @@
       <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>273</v>
+      <c r="C36" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5145,8 +5219,8 @@
       <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>226</v>
+      <c r="C37" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5157,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5168,7 +5242,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5178,7 +5252,7 @@
       <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
@@ -5197,7 +5271,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5208,7 +5282,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5219,7 +5293,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5230,8 +5304,11 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>278</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="C46" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7650" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7650" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DICOM打印模块" sheetId="14" r:id="rId1"/>
@@ -22,14 +22,14 @@
     <sheet name="TMEasyPACS 工作站" sheetId="16" r:id="rId13"/>
     <sheet name="TMEasy PACS-区域医疗影像模块" sheetId="17" r:id="rId14"/>
     <sheet name="苹果操作系统移动设备报告图像调阅模块" sheetId="18" r:id="rId15"/>
+    <sheet name="远程会诊" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="320">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,6 +1220,70 @@
   </si>
   <si>
     <t>P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5(1.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P29(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6（1.8）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P5(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6(1.6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4818,11 +4882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -5309,6 +5376,503 @@
     </row>
     <row r="46" spans="1:3">
       <c r="C46" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/模块检验项目.xlsx
+++ b/模块检验项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7650" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7650" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DICOM打印模块" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="322">
   <si>
     <t>5.1.3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,6 +1284,14 @@
   </si>
   <si>
     <t>P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3378,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4382,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4882,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5388,13 +5396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5809,8 +5817,8 @@
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>300</v>
+      <c r="C39" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5837,8 +5845,8 @@
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>292</v>
+      <c r="C42" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5848,8 +5856,8 @@
       <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>291</v>
+      <c r="C43" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5859,8 +5867,8 @@
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>292</v>
+      <c r="C44" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5870,8 +5878,8 @@
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>165</v>
+      <c r="C45" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5885,7 +5893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -6445,8 +6453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="28.5" customHeight="1"/>
@@ -8116,7 +8124,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A1:D45"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="24.75" customHeight="1"/>
@@ -8676,8 +8684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="A1:D45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
@@ -9794,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="27.75" customHeight="1"/>
